--- a/Validator_Tools/test_resources.xlsx
+++ b/Validator_Tools/test_resources.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/Validate_File/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\Validator_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47246BF1-0330-3343-BB99-D5DC4C702B6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26174B6F-75C7-47F7-9851-93D09D67302F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C41D9D53-C301-DE45-AC77-254FFD7F4D5F}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="1" xr2:uid="{C41D9D53-C301-DE45-AC77-254FFD7F4D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="epic" sheetId="1" r:id="rId1"/>
+    <sheet name="cerner" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -73,13 +73,25 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>6859739,6283733,6267833,6851733,6267785,6267831,6279917,7639733,7583733,6267775,6171733,7991735,7167733,6499769</t>
+  </si>
+  <si>
+    <t>4027912,4027915,4277906,4323909,4521906,4525906,4617906</t>
+  </si>
+  <si>
+    <t>1302007,4464007,4664007,1600014,1,1302007,4464007,1,1302007,1590015,1302007,4272008,1502022,1502022,937935,937935,937935,4954007,4464007,4646009,4594011</t>
+  </si>
+  <si>
+    <t>4342009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +117,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,17 +148,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,14 +493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3411C30-C3C7-5747-9BA0-310370083C22}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -473,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17">
+    <row r="3" spans="1:2" ht="16.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -516,4 +562,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95777ECF-DE76-40F6-8907-267C80C0813C}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="138.625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>